--- a/data/trans_camb/P16A_n_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>8.791321696779308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14.21444617974638</v>
+        <v>14.21444617974637</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.96338067557115</v>
@@ -664,7 +664,7 @@
         <v>10.86414082727812</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>17.50446272910136</v>
+        <v>17.50446272910135</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.30583668429608</v>
+        <v>10.92308911325905</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.548426077376926</v>
+        <v>4.384798869675918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.268289881445069</v>
+        <v>9.429789518258083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.94769598671156</v>
+        <v>9.963670141525064</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.855575572363225</v>
+        <v>8.048304831451144</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.40647174943871</v>
+        <v>15.34273751383342</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.64101864857996</v>
+        <v>11.73701735019215</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.672729558105294</v>
+        <v>7.632503649226248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.29529385689118</v>
+        <v>14.32267905889928</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.15506837337943</v>
+        <v>19.65816175476887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.36833110018802</v>
+        <v>13.66989834895477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.93128265667351</v>
+        <v>19.77405138926428</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.70038741830439</v>
+        <v>17.68059948926889</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.52313828546182</v>
+        <v>16.28918740715009</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.6962647811392</v>
+        <v>22.62275033265275</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.47557317866514</v>
+        <v>17.45734109192718</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.94488521965292</v>
+        <v>13.86525254374281</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.60930096536862</v>
+        <v>20.61321987053684</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2631258915644433</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4254410148033572</v>
+        <v>0.4254410148033569</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2923073767088214</v>
@@ -769,7 +769,7 @@
         <v>0.2620566813213276</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4222295609040287</v>
+        <v>0.4222295609040285</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2907801841560086</v>
+        <v>0.3092333809906699</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1304205981302428</v>
+        <v>0.1251474746706837</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2616573818915069</v>
+        <v>0.2670439650823553</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1973975296155347</v>
+        <v>0.1999191914545623</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1588852625043778</v>
+        <v>0.1625961170060681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.308325861789661</v>
+        <v>0.3060637975132508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2718455608616687</v>
+        <v>0.2725479869716437</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1813517566619684</v>
+        <v>0.179035063423645</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3332944723924144</v>
+        <v>0.3368050161507641</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6039975758471658</v>
+        <v>0.6314571266048143</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4243058017993965</v>
+        <v>0.4372937522214805</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6053255896307194</v>
+        <v>0.6345877323295077</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3858980951741809</v>
+        <v>0.3864686270553352</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3614282275246824</v>
+        <v>0.3529334300565182</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4954992038029013</v>
+        <v>0.4974716020963414</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4368300393337711</v>
+        <v>0.4398819413209575</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3512888801520916</v>
+        <v>0.3472482144559965</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5117000999747667</v>
+        <v>0.5129466642369079</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.166019040790182</v>
+        <v>5.055700307987325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.024813583393532</v>
+        <v>5.808816823648437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.52394080831237</v>
+        <v>14.7939377676982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.116060575101807</v>
+        <v>6.870915437127822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.528405795785659</v>
+        <v>5.890060053199472</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.63910941974675</v>
+        <v>13.7678367675328</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.569876665599199</v>
+        <v>6.66837966027717</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.730198260568191</v>
+        <v>6.526827491251576</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.86937598707175</v>
+        <v>14.95673467151215</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.5320604050707</v>
+        <v>9.572912971669654</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.43152015263466</v>
+        <v>10.31438826343936</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.59146314824397</v>
+        <v>19.71276986864002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.11561979186893</v>
+        <v>12.89590159125302</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.18169449283312</v>
+        <v>11.67812693298218</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.95150595661364</v>
+        <v>19.16212600757327</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.24818941067991</v>
+        <v>10.26737726029611</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.2461079114476</v>
+        <v>10.18475274280824</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.61244002408768</v>
+        <v>18.59695152418541</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.4806916407649668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9048180485645734</v>
+        <v>0.9048180485645732</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6267689649778744</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4779896576897978</v>
+        <v>0.4746160968013483</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5679026404933711</v>
+        <v>0.5371179660626588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.351415757315156</v>
+        <v>1.37910758276488</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3654440065753707</v>
+        <v>0.3479823588703249</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2852893684501667</v>
+        <v>0.301295643118109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6972729716459761</v>
+        <v>0.7063318212896555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4578146423524829</v>
+        <v>0.4586031707635151</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4655586725233627</v>
+        <v>0.4455252443980803</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.021658560134215</v>
+        <v>1.025146915152342</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.126861183133121</v>
+        <v>1.124494450381621</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.246199638999792</v>
+        <v>1.226261077524369</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.339231829518154</v>
+        <v>2.311801732976243</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7867047251187356</v>
+        <v>0.7765701460362385</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6727069557172005</v>
+        <v>0.7057591491758077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.154569277534346</v>
+        <v>1.177144791020198</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7984974765703762</v>
+        <v>0.8107600069728145</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8165413473478369</v>
+        <v>0.7994684015283828</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.485309787268898</v>
+        <v>1.460439290637886</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.4232430475062249</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.632011784292157</v>
+        <v>9.632011784292152</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.129548545942445</v>
@@ -1092,7 +1092,7 @@
         <v>2.27304714866591</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>11.45997576209734</v>
+        <v>11.45997576209733</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.260024654195607</v>
+        <v>-4.119535774946245</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.03501750832417506</v>
+        <v>0.06357611115634026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.113063847510711</v>
+        <v>8.045951432758327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.598411267957202</v>
+        <v>-3.050844828613223</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.270471392365246</v>
+        <v>-5.288003862659953</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.543222972500867</v>
+        <v>4.882981128625806</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.599094483028937</v>
+        <v>-1.429382421680293</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.535980431021407</v>
+        <v>-1.142825972099806</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.356079940725573</v>
+        <v>8.080947307765767</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.701107213966434</v>
+        <v>5.345158813459508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.386647145478859</v>
+        <v>8.849507011828441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.10013455630689</v>
+        <v>17.29117020060609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.736164709260491</v>
+        <v>8.429961260503374</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.942748338132493</v>
+        <v>4.579863834598257</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.0510579852134</v>
+        <v>14.27535614754375</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.490349436788803</v>
+        <v>6.076021704160242</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.445108226789938</v>
+        <v>5.611912159151768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.70224234277691</v>
+        <v>14.73213118896466</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0216002016348025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4915695554017209</v>
+        <v>0.4915695554017206</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1360986613363652</v>
@@ -1197,7 +1197,7 @@
         <v>0.1452696040563677</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7324028199030281</v>
+        <v>0.7324028199030278</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2327226147036404</v>
+        <v>-0.2678536430868929</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.002833904976223048</v>
+        <v>-0.006904823956015518</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5613674501912838</v>
+        <v>0.5503707995680243</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1249947289786743</v>
+        <v>-0.1414893484208761</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2362938090659772</v>
+        <v>-0.2453365775128442</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1979603673801542</v>
+        <v>0.2194339330140179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09230596437142165</v>
+        <v>-0.0821546045610974</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0828549335921528</v>
+        <v>-0.0664744269756581</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4763118086553357</v>
+        <v>0.4633434913533623</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5805033539770736</v>
+        <v>0.5443663695650486</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9484945843184637</v>
+        <v>0.8867647379116308</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.771353831348573</v>
+        <v>1.732234247834801</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5144291952149097</v>
+        <v>0.4869768423275407</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3054404835427993</v>
+        <v>0.2727334509267928</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.855580177263189</v>
+        <v>0.8382094702420723</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3911811044711757</v>
+        <v>0.4427072998033972</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3803335592154657</v>
+        <v>0.3989955931778952</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.075605193498938</v>
+        <v>1.064635757178563</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.516284012064244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12.17057443558924</v>
+        <v>12.17057443558925</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>10.2334580853793</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.786238710104122</v>
+        <v>5.678110510276666</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.643918346080752</v>
+        <v>3.458105296280893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.09270802435986</v>
+        <v>10.06171685498289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.089896974301309</v>
+        <v>7.823495047806761</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.754488593223275</v>
+        <v>2.519843784756117</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.526961699136695</v>
+        <v>8.396019271058011</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.495518481999996</v>
+        <v>7.549149103187267</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.700033455340838</v>
+        <v>3.696051575293211</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.06301438493987</v>
+        <v>9.93832069661249</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.696875159039189</v>
+        <v>9.964753331944351</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.559477772748778</v>
+        <v>7.489046646165662</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.15201439268595</v>
+        <v>14.35399053529412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.63870307897029</v>
+        <v>12.43723535365194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.313940830908372</v>
+        <v>7.251289450346203</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.8046116247999</v>
+        <v>12.53229745678782</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.58768017085552</v>
+        <v>10.65741703725212</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.819682151972817</v>
+        <v>6.860148071879141</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.04696269395646</v>
+        <v>12.9097764344006</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3159294570626343</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6970349904332128</v>
+        <v>0.6970349904332132</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3435708073976704</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3095320636636144</v>
+        <v>0.3128004890576961</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1933099917727044</v>
+        <v>0.1859455762906721</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5465342380559641</v>
+        <v>0.5395941248199181</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2625910820692854</v>
+        <v>0.2563775413622277</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08936290645989881</v>
+        <v>0.08133574400234483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2757060614781671</v>
+        <v>0.2732363555343212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3048286138717404</v>
+        <v>0.3094936169400979</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1516860874712088</v>
+        <v>0.1513398758896034</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4075356076338028</v>
+        <v>0.4068698525988136</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5886542335936299</v>
+        <v>0.6066069890144145</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4537385232210904</v>
+        <v>0.451637417586123</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8656612911728576</v>
+        <v>0.8754709243496112</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4401050070036033</v>
+        <v>0.4389343472823866</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2576564643744956</v>
+        <v>0.2516931263245631</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4470283986333087</v>
+        <v>0.4416326093583978</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4624634461321751</v>
+        <v>0.468232503140965</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2985178114433658</v>
+        <v>0.295746324381999</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5668402192841347</v>
+        <v>0.5666150548558748</v>
       </c>
     </row>
     <row r="28">
